--- a/src/test/java/resources/Müşteri Numaraları.xlsx
+++ b/src/test/java/resources/Müşteri Numaraları.xlsx
@@ -520,7 +520,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
